--- a/medicine/Enfance/Gérard_Dhôtel/Gérard_Dhôtel.xlsx
+++ b/medicine/Enfance/Gérard_Dhôtel/Gérard_Dhôtel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Dh%C3%B4tel</t>
+          <t>Gérard_Dhôtel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Lucien Dhôtel, né le 29 juillet 1955 à Vitry-le-François et mort le 27 mars 2015[1] à Paris[2],[3], est journaliste et écrivain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Lucien Dhôtel, né le 29 juillet 1955 à Vitry-le-François et mort le 27 mars 2015 à Paris est journaliste et écrivain.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Dh%C3%B4tel</t>
+          <t>Gérard_Dhôtel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Dhôtel, fils d'ouvrier, « sera toujours fier de la modestie de son milieu d’origine »[4]. Il intègre l’école de journalisme de Strasbourg[4], et est journaliste depuis 1980. Il a commencé sa carrière à L'Union[5].
-Spécialisé en jeunesse, il a été rédacteur en chef d'un magazine pour les juniors et les adolescents, L'Hebdo des juniors au sein du groupe Fleurus presse devenu L'Hebdo lors de la prise de contrôle du journal Le Monde sur les publications de la Vie catholique, de Télérama et de Fleurus[6],  puis Monde des ados. Il en est resté rédacteur en chef jusqu'en février 2010[4].
-Depuis, il s'est consacré à l'écriture d'ouvrages pour la jeunesse (Louise Michel, Non à l'exploitation ou Victor Schœlcher, Non à l'esclavage (Collection « Ceux qui ont dit non », Actes sud junior), Ados : crise, quelle crise ?). Son livre Israël-Palestine, une terre pour deux (Actes Sud junior) a reçu la Pépite du meilleur livre documentaire 2013 du salon du livre et de la presse jeunesse en Seine-Saint-Denis, à Montreuil. Son dernier livre paru le 5 février 2015 aux éditions de La Martinière Jeunesse est Le livre des vrai-faux du corps humain. Il est décédé le 27 mars 2015[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Dhôtel, fils d'ouvrier, « sera toujours fier de la modestie de son milieu d’origine ». Il intègre l’école de journalisme de Strasbourg, et est journaliste depuis 1980. Il a commencé sa carrière à L'Union.
+Spécialisé en jeunesse, il a été rédacteur en chef d'un magazine pour les juniors et les adolescents, L'Hebdo des juniors au sein du groupe Fleurus presse devenu L'Hebdo lors de la prise de contrôle du journal Le Monde sur les publications de la Vie catholique, de Télérama et de Fleurus,  puis Monde des ados. Il en est resté rédacteur en chef jusqu'en février 2010.
+Depuis, il s'est consacré à l'écriture d'ouvrages pour la jeunesse (Louise Michel, Non à l'exploitation ou Victor Schœlcher, Non à l'esclavage (Collection « Ceux qui ont dit non », Actes sud junior), Ados : crise, quelle crise ?). Son livre Israël-Palestine, une terre pour deux (Actes Sud junior) a reçu la Pépite du meilleur livre documentaire 2013 du salon du livre et de la presse jeunesse en Seine-Saint-Denis, à Montreuil. Son dernier livre paru le 5 février 2015 aux éditions de La Martinière Jeunesse est Le livre des vrai-faux du corps humain. Il est décédé le 27 mars 2015.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Dh%C3%B4tel</t>
+          <t>Gérard_Dhôtel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gérard Dhôtel, Paris, Essentiel, Milan, 1995.
 Gérard Dhôtel, Réfugiés, le droit d'asile menacé, J'accuse, Syros, 1995Prix Gustav Heinemann (Allemagne).
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Dh%C3%B4tel</t>
+          <t>Gérard_Dhôtel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,10 +619,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2000 :  Prix Gustav Heinemann (de) pour Réfugiés, le droit d'asile menacé
-2013 : Pépite du meilleur livre documentaire[7] du Salon du livre et de la presse jeunesse de Montreuil pour Israël-Palestine, une terre pour deux, illustré par Arno.</t>
+2013 : Pépite du meilleur livre documentaire du Salon du livre et de la presse jeunesse de Montreuil pour Israël-Palestine, une terre pour deux, illustré par Arno.</t>
         </is>
       </c>
     </row>
